--- a/data/output/Pedido_Semana_07_13022026_interior.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_interior.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>375</v>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>1403010000</t>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>513.75</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>308.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1319,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>1403010001</t>
@@ -1371,13 +1371,13 @@
         <v>3</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>272.5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>17.15</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>124.95</v>
+        <v>62.47</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>74.97</v>
+        <v>37.48</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>24.15</v>
@@ -3995,7 +3995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>1201090001</t>
@@ -4044,13 +4044,13 @@
         <v>2</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>85.8</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="P44" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>4</v>
       </c>
       <c r="U44" s="8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" hidden="1">
@@ -4319,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>1103020001</t>
@@ -4371,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>17.58</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="inlineStr">
         <is>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="P48" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4533,10 +4533,10 @@
         <v>2</v>
       </c>
       <c r="M50" s="6" t="n">
-        <v>32.17</v>
+        <v>14.3</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>19.3</v>
+        <v>8.58</v>
       </c>
       <c r="O50" s="7" t="inlineStr">
         <is>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="P50" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="U50" s="8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4805,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>1106070002</t>
@@ -4857,10 +4857,10 @@
         <v>0</v>
       </c>
       <c r="M54" s="6" t="n">
-        <v>9.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>5.97</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="inlineStr">
         <is>
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="P54" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -4883,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="U54" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" hidden="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
           <t>1106130007</t>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="6" t="n">
-        <v>10.72</v>
+        <v>0</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="inlineStr">
         <is>
@@ -4949,10 +4949,10 @@
         </is>
       </c>
       <c r="P55" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" s="2" t="n">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="U55" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" hidden="1">
@@ -5210,7 +5210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>1301010003</t>
@@ -5262,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="n">
-        <v>97.75</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>58.65</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="inlineStr">
         <is>
@@ -5273,10 +5273,10 @@
         </is>
       </c>
       <c r="P59" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="U59" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="6" t="n">
         <v>8.050000000000001</v>
@@ -6020,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
           <t>1701010001</t>
@@ -6072,10 +6072,10 @@
         <v>1</v>
       </c>
       <c r="M69" s="6" t="n">
-        <v>181.25</v>
+        <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>108.75</v>
+        <v>0</v>
       </c>
       <c r="O69" s="7" t="inlineStr">
         <is>
@@ -6083,10 +6083,10 @@
         </is>
       </c>
       <c r="P69" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R69" s="2" t="n">
         <v>0</v>
@@ -6098,10 +6098,10 @@
         <v>3</v>
       </c>
       <c r="U69" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" hidden="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
           <t>1701010001</t>
@@ -6153,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="M70" s="6" t="n">
-        <v>97.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>58.71</v>
+        <v>0</v>
       </c>
       <c r="O70" s="7" t="inlineStr">
         <is>
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="P70" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" s="2" t="n">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6315,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="M72" s="6" t="n">
-        <v>79.75</v>
+        <v>39.88</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>47.85</v>
+        <v>23.93</v>
       </c>
       <c r="O72" s="7" t="inlineStr">
         <is>
@@ -6326,10 +6326,10 @@
         </is>
       </c>
       <c r="P72" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="6" t="n">
         <v>0</v>
@@ -6924,141 +6924,141 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">C17A75   </t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="I80" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 15%</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="6" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="N80" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="O80" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+      <c r="P80" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" hidden="1">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>1103020001</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>CHAMAEDOREA</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">C20A110  </t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F80" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4" t="n">
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="n">
         <v>28.48</v>
       </c>
-      <c r="H80" s="4" t="n">
+      <c r="H81" s="4" t="n">
         <v>11.39</v>
       </c>
-      <c r="I80" s="5" t="inlineStr">
+      <c r="I81" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
+      <c r="J81" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 50%</t>
         </is>
       </c>
-      <c r="K80" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" s="6" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="N80" s="4" t="n">
-        <v>34.17</v>
-      </c>
-      <c r="O80" s="7" t="inlineStr">
+      <c r="K81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
       </c>
-      <c r="P80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>1103020001</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>CHAMAEDOREA</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C17A75   </t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F81" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="H81" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="I81" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 15%</t>
-        </is>
-      </c>
-      <c r="K81" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" s="6" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="N81" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="O81" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
-      </c>
       <c r="P81" s="3" t="n">
         <v>2</v>
       </c>
       <c r="Q81" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" s="2" t="n">
         <v>0</v>
@@ -7070,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="U81" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" hidden="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
           <t>1105050001</t>
@@ -7125,10 +7125,10 @@
         <v>0</v>
       </c>
       <c r="M82" s="6" t="n">
-        <v>90.62</v>
+        <v>0</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>54.37</v>
+        <v>0</v>
       </c>
       <c r="O82" s="7" t="inlineStr">
         <is>
@@ -7136,10 +7136,10 @@
         </is>
       </c>
       <c r="P82" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q82" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R82" s="2" t="n">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>2</v>
       </c>
       <c r="U82" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" s="6" t="n">
         <v>30.9</v>
@@ -7611,10 +7611,10 @@
         <v>3</v>
       </c>
       <c r="M88" s="6" t="n">
-        <v>101.2</v>
+        <v>57.2</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>60.72</v>
+        <v>34.32</v>
       </c>
       <c r="O88" s="7" t="inlineStr">
         <is>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="P88" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q88" s="3" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R88" s="2" t="n">
         <v>0</v>
@@ -7637,10 +7637,10 @@
         <v>1</v>
       </c>
       <c r="U88" s="8" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" hidden="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
           <t>1501060001</t>
@@ -7692,10 +7692,10 @@
         <v>-1</v>
       </c>
       <c r="M89" s="6" t="n">
-        <v>64.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="N89" s="4" t="n">
-        <v>38.94</v>
+        <v>0</v>
       </c>
       <c r="O89" s="7" t="inlineStr">
         <is>
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="P89" s="3" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Q89" s="3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R89" s="2" t="n">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>8</v>
       </c>
       <c r="U89" s="8" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" s="6" t="n">
         <v>2.45</v>
@@ -8045,7 +8045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
           <t>1506010003</t>
@@ -8097,10 +8097,10 @@
         <v>1</v>
       </c>
       <c r="M94" s="6" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>38.16</v>
+        <v>0</v>
       </c>
       <c r="O94" s="7" t="inlineStr">
         <is>
@@ -8108,10 +8108,10 @@
         </is>
       </c>
       <c r="P94" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q94" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R94" s="2" t="n">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>2</v>
       </c>
       <c r="U94" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95"/>
@@ -8141,7 +8141,7 @@
         </is>
       </c>
       <c r="C97" s="5" t="n">
-        <v>438</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="C99" s="5" t="inlineStr">
         <is>
-          <t>5549.67€</t>
+          <t>3753.31€</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="C108" s="5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
